--- a/ArduinoBase/TTGO_Test_BLE/ErrorCodes.xlsx
+++ b/ArduinoBase/TTGO_Test_BLE/ErrorCodes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Amber\Codes\00_CodeDump\TTGO_Test_BLE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Amber\Codes\00_CodeDump\ArduinoBase\TTGO_Test_BLE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982DF5DD-9A80-4836-84F1-B2F69F5D709A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B26AD44-BBCB-4885-92DA-106E0211E073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5460455D-EDE0-4FB5-8DDE-53612F1075B7}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
   <si>
     <t>Error Code</t>
   </si>
@@ -198,6 +198,45 @@
   </si>
   <si>
     <t xml:space="preserve">roll </t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>{"lock":0}</t>
+  </si>
+  <si>
+    <t>Lock Vehicle</t>
+  </si>
+  <si>
+    <t>{"lock":1}</t>
+  </si>
+  <si>
+    <t>Unlock Vehicle</t>
+  </si>
+  <si>
+    <t>{"battery":0}</t>
+  </si>
+  <si>
+    <t>Unlock Battery</t>
+  </si>
+  <si>
+    <t>{"telemetry":0}</t>
+  </si>
+  <si>
+    <t>Stop Telemetry</t>
+  </si>
+  <si>
+    <t>{"telemetry":1}</t>
+  </si>
+  <si>
+    <t>Start Telemetry</t>
+  </si>
+  <si>
+    <t>{"resetMPU":0}</t>
+  </si>
+  <si>
+    <t>Reset MPU</t>
   </si>
 </sst>
 </file>
@@ -549,20 +588,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A38D10-12BA-46C0-A043-09DCC9A1D024}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -578,8 +620,14 @@
       <c r="G1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -595,8 +643,14 @@
       <c r="G2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -612,8 +666,14 @@
       <c r="G3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -629,8 +689,14 @@
       <c r="G4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -646,8 +712,14 @@
       <c r="G5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -663,8 +735,14 @@
       <c r="G6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -680,8 +758,14 @@
       <c r="G7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -698,7 +782,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>98</v>
       </c>
@@ -715,7 +799,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>99</v>
       </c>
@@ -732,7 +816,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
         <v>33</v>
       </c>
@@ -743,7 +827,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
         <v>36</v>
       </c>
@@ -754,7 +838,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>38</v>
       </c>
@@ -765,7 +849,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
         <v>40</v>
       </c>
@@ -776,7 +860,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
         <v>42</v>
       </c>
@@ -787,7 +871,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
         <v>44</v>
       </c>
